--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W5_H50_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W5_H50_B16.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5545454545454546</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
+        <v>0.552870090634441</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006756756756756757</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5558912386706949</v>
+        <v>0.552870090634441</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7134502923976608</v>
+        <v>0.7120622568093384</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5075528700906344</v>
+        <v>0.4803625377643505</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.146834479134169</v>
+        <v>0.133311786740489</v>
       </c>
       <c r="J2" t="n">
-        <v>1888.87981381467</v>
+        <v>1770.668466087172</v>
       </c>
       <c r="K2" t="n">
-        <v>4373542.114736264</v>
+        <v>4116305.04310937</v>
       </c>
       <c r="L2" t="n">
-        <v>2091.301536062235</v>
+        <v>2028.867921553636</v>
       </c>
       <c r="M2" t="n">
-        <v>0.182395118258479</v>
+        <v>0.2304838939029142</v>
       </c>
     </row>
   </sheetData>
